--- a/dataDisplay/flaskapp/sums_models/analysis/extract/高新科抽取.xlsx
+++ b/dataDisplay/flaskapp/sums_models/analysis/extract/高新科抽取.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Technology_Bureau\dataDisplay\dataDisplay\flaskapp\sums_models\analysis\extract\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="170">
   <si>
     <t>项目编号</t>
   </si>
@@ -139,9 +144,6 @@
   </si>
   <si>
     <t>倍增计划</t>
-  </si>
-  <si>
-    <t>自筹,贷款</t>
   </si>
   <si>
     <t>江苏省科技型中小企业创业投资引导资金项目</t>
@@ -534,14 +536,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,345 +552,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -902,251 +575,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,61 +595,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1505,19 +892,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="52.75" style="1" customWidth="1"/>
@@ -1531,7 +918,7 @@
     <col min="10" max="10" width="5.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1568,7 +955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1585,12 +972,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1598,7 +985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,12 +1005,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1631,7 +1018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1662,7 +1049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1670,7 +1057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1698,7 +1085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1709,7 +1096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1732,12 +1119,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1745,7 +1132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1756,12 +1143,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1769,7 +1156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1795,7 +1182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1803,7 +1190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1826,12 +1213,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1839,7 +1226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="3:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1852,24 +1239,21 @@
       <c r="G36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I36" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E40" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8">
-      <c r="E40" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>12</v>
@@ -1878,53 +1262,53 @@
         <v>5</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D41" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" ht="17" customHeight="1" spans="2:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D45" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>0</v>
       </c>
@@ -1941,26 +1325,26 @@
         <v>5</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1977,26 +1361,26 @@
         <v>5</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>14</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
@@ -2013,26 +1397,26 @@
         <v>5</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D57" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>15</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
@@ -2043,26 +1427,26 @@
         <v>34</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>16</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2079,26 +1463,26 @@
         <v>34</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D65" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>17</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,23 +1499,23 @@
         <v>34</v>
       </c>
       <c r="H68" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D69" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="4:4">
-      <c r="D69" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>18</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
@@ -2148,23 +1532,23 @@
         <v>34</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D73" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>19</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
@@ -2178,59 +1562,59 @@
         <v>34</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D77" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>20</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D81" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>21</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>0</v>
       </c>
@@ -2250,53 +1634,53 @@
         <v>5</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D85" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>22</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" spans="4:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D89" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>23</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="3:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
         <v>10</v>
       </c>
@@ -2310,28 +1694,28 @@
         <v>34</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="4:4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D93" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>24</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B96" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>10</v>
@@ -2340,26 +1724,26 @@
         <v>11</v>
       </c>
       <c r="G96" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D97" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>25</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C100" s="1" t="s">
         <v>10</v>
       </c>
@@ -2367,26 +1751,26 @@
         <v>11</v>
       </c>
       <c r="G100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="101" spans="4:4">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D101" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>26</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C104" s="1" t="s">
         <v>10</v>
       </c>
@@ -2394,26 +1778,26 @@
         <v>11</v>
       </c>
       <c r="G104" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="105" spans="4:4">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D105" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>27</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C108" s="1" t="s">
         <v>10</v>
       </c>
@@ -2421,56 +1805,56 @@
         <v>11</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="109" spans="4:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D109" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>28</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B112" s="1" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8">
-      <c r="B112" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D113" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>29</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="116" spans="5:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E116" s="1" t="s">
         <v>38</v>
       </c>
@@ -2478,22 +1862,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="4:4">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D117" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>30</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B120" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>38</v>
@@ -2505,52 +1889,52 @@
         <v>24</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="121" spans="4:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D121" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>31</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B124" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="124" spans="2:7">
-      <c r="B124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="4:4">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D125" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>32</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="128" spans="5:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E128" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>39</v>
@@ -2559,91 +1943,91 @@
         <v>34</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="129" spans="4:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D129" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>33</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="132" spans="5:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E132" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="4:4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D133" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>34</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E136" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="5:7">
-      <c r="E136" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="137" spans="4:4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D137" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>35</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="140" spans="5:7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E140" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="4:4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D141" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>36</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="144" spans="5:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E144" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>4</v>
@@ -2652,22 +2036,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="4:4">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D145" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>37</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="148" spans="5:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E148" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>39</v>
@@ -2676,25 +2060,25 @@
         <v>34</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="149" spans="4:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D149" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>38</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B152" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>38</v>
@@ -2706,20 +2090,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="4:4">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D153" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>39</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="156" spans="5:7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E156" s="1" t="s">
         <v>38</v>
       </c>
@@ -2730,20 +2114,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="4:4">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D157" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>40</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="160" spans="5:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E160" s="1" t="s">
         <v>3</v>
       </c>
@@ -2751,41 +2135,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="4:4">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D161" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>41</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B164" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="164" spans="2:5">
-      <c r="B164" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E164" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="165" spans="4:4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D165" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>42</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="168" spans="5:7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E168" s="1" t="s">
         <v>38</v>
       </c>
@@ -2796,70 +2180,70 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="4:4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D169" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>43</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="172" spans="5:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E172" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="4:4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D173" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>44</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E176" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="176" spans="5:7">
-      <c r="E176" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="4:4">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D177" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>45</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="180" spans="2:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B180" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>29</v>
@@ -2868,22 +2252,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="4:4">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D181" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>46</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="184" spans="2:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B184" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>3</v>
@@ -2895,45 +2279,45 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="4:4">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D185" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>47</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C188" s="3" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="188" spans="3:7">
-      <c r="C188" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>48</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="192" spans="2:8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B192" s="1" t="s">
         <v>0</v>
       </c>
@@ -2950,28 +2334,28 @@
         <v>5</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="193" spans="4:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D193" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>49</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B196" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="196" spans="2:8">
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>3</v>
@@ -2983,58 +2367,58 @@
         <v>5</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="197" spans="4:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D197" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>50</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="200" spans="3:7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C200" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="201" spans="4:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D201" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>51</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B204" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>39</v>
@@ -3043,25 +2427,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="4:4">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D205" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>52</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="208" spans="2:6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B208" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>3</v>
@@ -3070,20 +2454,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="4:4">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D209" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>53</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="212" spans="5:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E212" s="3" t="s">
         <v>38</v>
       </c>
@@ -3094,49 +2478,49 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="4:4">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D213" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>54</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E216" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="216" spans="5:8">
-      <c r="E216" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="F216" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="217" spans="4:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D217" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>55</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C220" s="1" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="220" spans="3:8">
-      <c r="C220" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>2</v>
@@ -3148,51 +2532,51 @@
         <v>34</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>56</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B224" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="224" spans="2:8">
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E224" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="G224" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G224" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="H224" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>57</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C228" s="1" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="228" spans="3:7">
-      <c r="C228" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>39</v>
@@ -3201,40 +2585,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="4:4">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D229" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>58</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="232" spans="5:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E232" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="233" spans="4:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D233" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>59</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C236" s="1" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="236" spans="3:7">
-      <c r="C236" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>4</v>
@@ -3243,22 +2627,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="4:4">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D237" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>60</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="240" spans="3:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C240" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>11</v>
@@ -3270,22 +2654,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="4:4">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D241" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>61</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="244" spans="3:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C244" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>39</v>
@@ -3294,140 +2678,140 @@
         <v>34</v>
       </c>
     </row>
-    <row r="245" spans="4:4">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D245" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>62</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C248" s="1" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="248" spans="3:6">
-      <c r="C248" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="4:4">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D249" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>63</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="252" spans="3:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C252" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="253" spans="4:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D253" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>64</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C256" s="1" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="256" spans="3:7">
-      <c r="C256" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>65</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C260" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="260" spans="3:8">
-      <c r="C260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E260" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="F260" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="261" spans="4:4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D261" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>66</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C264" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="264" spans="3:6">
-      <c r="C264" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E264" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F264" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="265" spans="4:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D265" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>67</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C268" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="268" spans="3:8">
-      <c r="C268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>39</v>
@@ -3436,28 +2820,28 @@
         <v>34</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="269" spans="4:4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D269" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>68</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C272" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="272" spans="3:7">
-      <c r="C272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>29</v>
@@ -3466,20 +2850,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="4:4">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D273" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>69</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="276" spans="3:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C276" s="1" t="s">
         <v>10</v>
       </c>
@@ -3490,108 +2874,102 @@
         <v>39</v>
       </c>
       <c r="G276" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H276" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H276" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="277" spans="4:4">
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D277" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>70</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C280" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="280" spans="3:7">
-      <c r="C280" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="281" spans="4:4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D281" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>71</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="284" spans="3:7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C284" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="285" spans="4:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D285" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/dataDisplay/flaskapp/sums_models/analysis/extract/高新科抽取.xlsx
+++ b/dataDisplay/flaskapp/sums_models/analysis/extract/高新科抽取.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="171">
   <si>
     <t>项目编号</t>
   </si>
@@ -461,76 +461,81 @@
     <t>江苏省创新型园区</t>
   </si>
   <si>
+    <t>专业镇名称</t>
+  </si>
+  <si>
+    <t>江苏省创新专业镇</t>
+  </si>
+  <si>
+    <t>省大学科技园</t>
+  </si>
+  <si>
+    <t>大学科技园名称</t>
+  </si>
+  <si>
+    <t>省众创空间</t>
+  </si>
+  <si>
+    <t>众创空间名称</t>
+  </si>
+  <si>
+    <t>运营主体名称</t>
+  </si>
+  <si>
+    <t>资助金额</t>
+  </si>
+  <si>
+    <t>省级众创集聚区</t>
+  </si>
+  <si>
+    <t>众创集聚区试点名称</t>
+  </si>
+  <si>
+    <t>管理机构名称</t>
+  </si>
+  <si>
+    <t>苏州众创空间</t>
+  </si>
+  <si>
+    <t>机构名称</t>
+  </si>
+  <si>
+    <t>运营单位</t>
+  </si>
+  <si>
+    <t>昆山市企业科技产业园</t>
+  </si>
+  <si>
+    <t>产业园名称</t>
+  </si>
+  <si>
+    <t>所属企业</t>
+  </si>
+  <si>
+    <t>昆山市众创空间认定清单</t>
+  </si>
+  <si>
+    <t>昆山科技企业孵化器</t>
+  </si>
+  <si>
+    <t>管理公司名称</t>
+  </si>
+  <si>
+    <t>所属区</t>
+  </si>
+  <si>
+    <t>昆山科技孵化器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  所属区镇</t>
+  </si>
+  <si>
     <t>江苏省创新型乡镇</t>
-  </si>
-  <si>
-    <t>专业镇名称</t>
-  </si>
-  <si>
-    <t>江苏省创新专业镇</t>
-  </si>
-  <si>
-    <t>省大学科技园</t>
-  </si>
-  <si>
-    <t>大学科技园名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>省众创空间</t>
-  </si>
-  <si>
-    <t>众创空间名称</t>
-  </si>
-  <si>
-    <t>运营主体名称</t>
-  </si>
-  <si>
-    <t>资助金额</t>
-  </si>
-  <si>
-    <t>省级众创集聚区</t>
-  </si>
-  <si>
-    <t>众创集聚区试点名称</t>
-  </si>
-  <si>
-    <t>管理机构名称</t>
-  </si>
-  <si>
-    <t>苏州众创空间</t>
-  </si>
-  <si>
-    <t>机构名称</t>
-  </si>
-  <si>
-    <t>运营单位</t>
-  </si>
-  <si>
-    <t>昆山市企业科技产业园</t>
-  </si>
-  <si>
-    <t>产业园名称</t>
-  </si>
-  <si>
-    <t>所属企业</t>
-  </si>
-  <si>
-    <t>昆山市众创空间认定清单</t>
-  </si>
-  <si>
-    <t>昆山科技企业孵化器</t>
-  </si>
-  <si>
-    <t>管理公司名称</t>
-  </si>
-  <si>
-    <t>所属区</t>
-  </si>
-  <si>
-    <t>昆山科技孵化器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  所属区镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -900,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="J285" sqref="J285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -915,7 +920,7 @@
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="52.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -976,6 +981,9 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -1009,6 +1017,9 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -1048,6 +1059,9 @@
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -1077,15 +1091,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1096,7 +1113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,12 +1136,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1132,7 +1152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1143,12 +1163,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1156,7 +1179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1182,7 +1205,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1190,7 +1218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,12 +1241,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1226,7 +1257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1243,7 +1274,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>10</v>
       </c>
@@ -1251,7 +1287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1265,12 +1301,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D41" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>11</v>
       </c>
@@ -1278,7 +1317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,12 +1334,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>12</v>
       </c>
@@ -1308,7 +1350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,12 +1373,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J49" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>13</v>
       </c>
@@ -1344,7 +1389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,12 +1412,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>14</v>
       </c>
@@ -1380,7 +1428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,12 +1451,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D57" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J57" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>15</v>
       </c>
@@ -1416,7 +1467,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
@@ -1433,12 +1484,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J61" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>16</v>
       </c>
@@ -1446,7 +1502,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
@@ -1469,12 +1525,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D65" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J65" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>17</v>
       </c>
@@ -1482,7 +1541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
@@ -1502,12 +1561,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D69" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J69" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>18</v>
       </c>
@@ -1515,7 +1577,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,12 +1597,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D73" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J73" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>19</v>
       </c>
@@ -1548,7 +1613,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
@@ -1565,12 +1630,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D77" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J77" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>20</v>
       </c>
@@ -1578,7 +1646,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>69</v>
       </c>
@@ -1601,12 +1669,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D81" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J81" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>21</v>
       </c>
@@ -1614,7 +1685,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>0</v>
       </c>
@@ -1637,12 +1708,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D85" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J85" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>22</v>
       </c>
@@ -1650,7 +1724,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C88" s="1" t="s">
         <v>10</v>
       </c>
@@ -1667,12 +1741,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D89" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J89" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>23</v>
       </c>
@@ -1680,7 +1757,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
         <v>10</v>
       </c>
@@ -1700,12 +1777,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D93" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J93" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>24</v>
       </c>
@@ -1713,7 +1793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
         <v>81</v>
       </c>
@@ -1730,12 +1810,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D97" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J97" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>25</v>
       </c>
@@ -1743,7 +1826,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C100" s="1" t="s">
         <v>10</v>
       </c>
@@ -1757,12 +1840,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D101" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J101" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>26</v>
       </c>
@@ -1770,7 +1856,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C104" s="1" t="s">
         <v>10</v>
       </c>
@@ -1784,12 +1870,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D105" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J105" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>27</v>
       </c>
@@ -1797,7 +1886,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C108" s="1" t="s">
         <v>10</v>
       </c>
@@ -1811,12 +1900,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D109" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J109" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>28</v>
       </c>
@@ -1824,7 +1916,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B112" s="1" t="s">
         <v>89</v>
       </c>
@@ -1841,12 +1933,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D113" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J113" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>29</v>
       </c>
@@ -1854,7 +1949,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E116" s="1" t="s">
         <v>38</v>
       </c>
@@ -1862,12 +1957,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D117" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J117" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>30</v>
       </c>
@@ -1875,7 +1973,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B120" s="1" t="s">
         <v>89</v>
       </c>
@@ -1892,12 +1990,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D121" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J121" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>31</v>
       </c>
@@ -1905,7 +2006,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B124" s="1" t="s">
         <v>94</v>
       </c>
@@ -1919,12 +2020,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D125" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J125" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>32</v>
       </c>
@@ -1932,7 +2036,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E128" s="1" t="s">
         <v>95</v>
       </c>
@@ -1946,12 +2050,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D129" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J129" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>33</v>
       </c>
@@ -1959,7 +2066,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E132" s="1" t="s">
         <v>38</v>
       </c>
@@ -1970,12 +2077,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D133" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J133" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>34</v>
       </c>
@@ -1983,7 +2093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E136" s="1" t="s">
         <v>95</v>
       </c>
@@ -1991,12 +2101,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D137" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J137" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>35</v>
       </c>
@@ -2004,7 +2117,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E140" s="1" t="s">
         <v>95</v>
       </c>
@@ -2012,12 +2125,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D141" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J141" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>36</v>
       </c>
@@ -2025,7 +2141,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E144" s="1" t="s">
         <v>95</v>
       </c>
@@ -2036,12 +2152,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D145" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J145" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>37</v>
       </c>
@@ -2049,7 +2168,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E148" s="1" t="s">
         <v>95</v>
       </c>
@@ -2063,12 +2182,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D149" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J149" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>38</v>
       </c>
@@ -2076,7 +2198,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B152" s="1" t="s">
         <v>89</v>
       </c>
@@ -2090,12 +2212,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D153" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J153" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>39</v>
       </c>
@@ -2103,7 +2228,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E156" s="1" t="s">
         <v>38</v>
       </c>
@@ -2114,12 +2239,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D157" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J157" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>40</v>
       </c>
@@ -2127,7 +2255,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E160" s="1" t="s">
         <v>3</v>
       </c>
@@ -2135,12 +2263,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D161" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J161" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>41</v>
       </c>
@@ -2148,7 +2279,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B164" s="1" t="s">
         <v>109</v>
       </c>
@@ -2156,12 +2287,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D165" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J165" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>42</v>
       </c>
@@ -2169,7 +2303,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E168" s="1" t="s">
         <v>38</v>
       </c>
@@ -2180,12 +2314,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D169" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J169" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>43</v>
       </c>
@@ -2193,7 +2330,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E172" s="1" t="s">
         <v>95</v>
       </c>
@@ -2201,12 +2338,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D173" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J173" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>44</v>
       </c>
@@ -2214,7 +2354,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E176" s="1" t="s">
         <v>95</v>
       </c>
@@ -2225,12 +2365,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D177" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J177" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>45</v>
       </c>
@@ -2238,7 +2381,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B180" s="1" t="s">
         <v>89</v>
       </c>
@@ -2252,12 +2395,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D181" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J181" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>46</v>
       </c>
@@ -2265,7 +2411,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B184" s="1" t="s">
         <v>89</v>
       </c>
@@ -2279,12 +2425,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D185" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J185" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>47</v>
       </c>
@@ -2292,7 +2441,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C188" s="3" t="s">
         <v>117</v>
       </c>
@@ -2309,7 +2458,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J189" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>48</v>
       </c>
@@ -2317,7 +2471,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B192" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,12 +2491,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D193" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J193" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>49</v>
       </c>
@@ -2350,7 +2507,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B196" s="1" t="s">
         <v>122</v>
       </c>
@@ -2370,12 +2527,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D197" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J197" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>50</v>
       </c>
@@ -2383,7 +2543,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C200" s="3" t="s">
         <v>117</v>
       </c>
@@ -2400,12 +2560,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D201" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J201" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>51</v>
       </c>
@@ -2413,7 +2576,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B204" s="1" t="s">
         <v>122</v>
       </c>
@@ -2427,12 +2590,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D205" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J205" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>52</v>
       </c>
@@ -2440,7 +2606,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B208" s="1" t="s">
         <v>122</v>
       </c>
@@ -2454,12 +2620,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D209" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J209" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>53</v>
       </c>
@@ -2467,7 +2636,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E212" s="3" t="s">
         <v>38</v>
       </c>
@@ -2478,12 +2647,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D213" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J213" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>54</v>
       </c>
@@ -2491,7 +2663,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E216" s="1" t="s">
         <v>129</v>
       </c>
@@ -2505,12 +2677,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D217" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J217" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>55</v>
       </c>
@@ -2518,7 +2693,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C220" s="1" t="s">
         <v>131</v>
       </c>
@@ -2535,7 +2710,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J221" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>56</v>
       </c>
@@ -2543,7 +2723,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B224" s="1" t="s">
         <v>134</v>
       </c>
@@ -2566,7 +2746,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J225" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>57</v>
       </c>
@@ -2574,7 +2759,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C228" s="1" t="s">
         <v>140</v>
       </c>
@@ -2585,12 +2770,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D229" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J229" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>58</v>
       </c>
@@ -2598,17 +2786,20 @@
         <v>141</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E232" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D233" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J233" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>59</v>
       </c>
@@ -2616,7 +2807,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C236" s="1" t="s">
         <v>143</v>
       </c>
@@ -2627,12 +2818,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D237" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J237" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>60</v>
       </c>
@@ -2640,7 +2834,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C240" s="1" t="s">
         <v>143</v>
       </c>
@@ -2654,12 +2848,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D241" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J241" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>61</v>
       </c>
@@ -2667,7 +2864,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C244" s="1" t="s">
         <v>140</v>
       </c>
@@ -2678,61 +2875,70 @@
         <v>34</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D245" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J245" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>62</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C248" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C248" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D249" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J249" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>63</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C252" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D253" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J253" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>64</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C256" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C256" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>2</v>
@@ -2744,20 +2950,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J257" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>65</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C260" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>96</v>
@@ -2766,52 +2977,58 @@
         <v>34</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D261" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J261" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>66</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C264" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C264" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D265" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J265" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>67</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C268" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>39</v>
@@ -2820,28 +3037,31 @@
         <v>34</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D269" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J269" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>68</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C272" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>29</v>
@@ -2850,20 +3070,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D273" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J273" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>69</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C276" s="1" t="s">
         <v>10</v>
       </c>
@@ -2880,63 +3103,72 @@
         <v>83</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D277" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J277" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>70</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C280" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D281" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J281" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>71</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C284" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D285" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/dataDisplay/flaskapp/sums_models/analysis/extract/高新科抽取.xlsx
+++ b/dataDisplay/flaskapp/sums_models/analysis/extract/高新科抽取.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="171">
   <si>
     <t>项目编号</t>
   </si>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="J285" sqref="J285"/>
+    <sheetView tabSelected="1" topLeftCell="D274" workbookViewId="0">
+      <selection activeCell="I284" sqref="I284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2705,9 +2705,6 @@
       </c>
       <c r="G220" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.15">
